--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW17.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW17.xlsx
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="D80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="F80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="I80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="K80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>2.2352166657520005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>5.92515</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>3.6209249999999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="E164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="F164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="G164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="H164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="I164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="K164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
       <c r="L164" t="n">
-        <v>2.128405262508</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -6373,37 +6373,37 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="D166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="E166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="F166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="G166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="H166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="I166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="J166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="K166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
       <c r="L166" t="n">
-        <v>2.4831394729260006</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.64505</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="D211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
@@ -9033,37 +9033,37 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="I236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="J236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="K236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.34754078963449997</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="237">
@@ -9641,37 +9641,37 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="J252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="K252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.30959166671516664</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="253">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="D283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="E283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="F283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="G283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="I283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="J283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="K283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
       <c r="L283" t="n">
-        <v>5.8649999976</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
@@ -11959,37 +11959,37 @@
         <v>312.0</v>
       </c>
       <c r="B313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="C313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="D313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="E313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="F313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="G313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="H313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="I313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="J313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="K313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
       <c r="L313" t="n">
-        <v>4.890457896506001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="314">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="C396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="D396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="E396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="F396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="G396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="H396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="I396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="J396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="K396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="L396" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="397">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>3.6200131575300003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -17659,37 +17659,37 @@
         <v>462.0</v>
       </c>
       <c r="B463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="C463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="D463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="E463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="F463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="G463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="H463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="I463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="J463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="K463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
       <c r="L463" t="n">
-        <v>0.2937083331908333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="464">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="C480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="D480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="E480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="F480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="G480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="H480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="I480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="J480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="K480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
       <c r="L480" t="n">
-        <v>0.6352500000699999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="481">
@@ -19141,37 +19141,37 @@
         <v>501.0</v>
       </c>
       <c r="B502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="C502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="D502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="E502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="F502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="G502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="H502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="I502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="J502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="K502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
       <c r="L502" t="n">
-        <v>0.30959166671516664</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="503">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="C510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="D510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="E510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="F510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="G510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="H510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="I510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="J510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="K510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="L510" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="511">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="C521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="D521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="E521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="F521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="G521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="H521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="I521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="J521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="K521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
       <c r="L521" t="n">
-        <v>1.4985833338233332</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="522">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>0.665644736988</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="C531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="D531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="E531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="F531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="G531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="H531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="I531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="J531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="K531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
       <c r="L531" t="n">
-        <v>0.9883815791639999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="532">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>0.64575000028</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
